--- a/Grade Comparison.xlsx
+++ b/Grade Comparison.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mwrud_000\Documents\Personal Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477FE0AF-71A3-4E2B-831A-4B40E3145FC4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54056305-E0EB-4AD9-AC87-F225E8FCCC9D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="14040" xr2:uid="{4065CF50-F667-4609-843A-97BE19CF68FD}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{4065CF50-F667-4609-843A-97BE19CF68FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,6 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="72">
   <si>
     <t>Fall</t>
   </si>
@@ -120,15 +122,157 @@
   </si>
   <si>
     <t>Diff</t>
+  </si>
+  <si>
+    <t>Class Name</t>
+  </si>
+  <si>
+    <t>Intro to Chem</t>
+  </si>
+  <si>
+    <t>Foundations of Engineering</t>
+  </si>
+  <si>
+    <t>Galileo Seminar</t>
+  </si>
+  <si>
+    <t>World Regions</t>
+  </si>
+  <si>
+    <t>Calculus 1</t>
+  </si>
+  <si>
+    <t>Chemistry Lab</t>
+  </si>
+  <si>
+    <t>Foundations of Engineering 2</t>
+  </si>
+  <si>
+    <t>Calculus 2</t>
+  </si>
+  <si>
+    <t>Linear Algebra</t>
+  </si>
+  <si>
+    <t>Physics 1</t>
+  </si>
+  <si>
+    <t>Physics 2</t>
+  </si>
+  <si>
+    <t>Intro to C++</t>
+  </si>
+  <si>
+    <t>Statics</t>
+  </si>
+  <si>
+    <t>Manufacturing Processes Lab</t>
+  </si>
+  <si>
+    <t>Multivariable Calculus</t>
+  </si>
+  <si>
+    <t>Engineering Design and Economy</t>
+  </si>
+  <si>
+    <t>Dynamics</t>
+  </si>
+  <si>
+    <t>Differential Equations</t>
+  </si>
+  <si>
+    <t>Applied Electrical Theory</t>
+  </si>
+  <si>
+    <t>Materials Science</t>
+  </si>
+  <si>
+    <t>Statistics for Engineering</t>
+  </si>
+  <si>
+    <t>Industrial Electronics</t>
+  </si>
+  <si>
+    <t>ME Lab</t>
+  </si>
+  <si>
+    <t>Land Vehicle Dynamics</t>
+  </si>
+  <si>
+    <t>Dynamic Systems- Vibrations</t>
+  </si>
+  <si>
+    <t>Heat and Mass Transfer</t>
+  </si>
+  <si>
+    <t>Mechanical Design</t>
+  </si>
+  <si>
+    <t>System Dynamics</t>
+  </si>
+  <si>
+    <t>Fluid Mechanics</t>
+  </si>
+  <si>
+    <t>Thermodynamics</t>
+  </si>
+  <si>
+    <t>Intro to Thermal Fluids</t>
+  </si>
+  <si>
+    <t>Mechanics of Deformable Bodies</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>This data was taken from my specific class information on Virginia Tech's published grade distribution website for each semester. The purpose of this is to show that despite a few hiccups, I have excelled in my classes and I have grown into a better student along the way.</t>
+  </si>
+  <si>
+    <t>Grades were reverse curved in this class</t>
+  </si>
+  <si>
+    <t>BSE</t>
+  </si>
+  <si>
+    <t>Engines and Power Trains</t>
+  </si>
+  <si>
+    <t>ME Lab 2</t>
+  </si>
+  <si>
+    <t>Senior Design Project</t>
+  </si>
+  <si>
+    <t>CAD of Fluid Thermal Systems</t>
+  </si>
+  <si>
+    <t>Automotive Engineering</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -155,13 +299,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -179,16 +331,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -503,21 +645,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{014736B9-78FB-4F96-B657-4AB455F7CF4B}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40:K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="40.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -534,34 +680,43 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>23</v>
       </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
       <c r="K1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" t="s">
         <v>28</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>26</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>27</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -577,45 +732,48 @@
       <c r="E2">
         <v>3</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2">
         <v>81683</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>2.63</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>2.7</v>
       </c>
-      <c r="I2">
-        <f>H2-G2</f>
+      <c r="J2">
+        <f>I2-H2</f>
         <v>7.0000000000000284E-2</v>
       </c>
-      <c r="K2">
-        <f>SUM(E2:E57)</f>
-        <v>91</v>
-      </c>
       <c r="L2">
-        <f>G2*E2/$K$2</f>
-        <v>8.6703296703296698E-2</v>
+        <f>SUM(E2:E62)</f>
+        <v>106</v>
       </c>
       <c r="M2">
-        <f>H2*E2/$K$2</f>
-        <v>8.9010989010989028E-2</v>
+        <f>H2*E2/$L$2</f>
+        <v>7.4433962264150944E-2</v>
       </c>
       <c r="N2">
-        <f>SUM(L2:L33)</f>
-        <v>2.8263736263736261</v>
-      </c>
-      <c r="O2">
-        <f>SUM(M2:M33)</f>
-        <v>3.1725274725274732</v>
-      </c>
-      <c r="P2">
-        <f>O2-N2</f>
-        <v>0.34615384615384714</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <f>I2*E2/$L$2</f>
+        <v>7.6415094339622652E-2</v>
+      </c>
+      <c r="O2" s="3">
+        <f>SUM(M2:M38)</f>
+        <v>2.8880188679245284</v>
+      </c>
+      <c r="P2" s="3">
+        <f>SUM(N2:N38)</f>
+        <v>3.24433962264151</v>
+      </c>
+      <c r="Q2">
+        <f>P2-O2</f>
+        <v>0.35632075471698155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -631,29 +789,32 @@
       <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3">
         <v>88945</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>3.01</v>
       </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
       <c r="I3">
-        <f t="shared" ref="I3:I33" si="0">H3-G3</f>
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J38" si="0">I3-H3</f>
         <v>-9.9999999999997868E-3</v>
       </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L33" si="1">G3*E3/$K$2</f>
-        <v>6.6153846153846146E-2</v>
-      </c>
       <c r="M3">
-        <f t="shared" ref="M3:M33" si="2">H3*E3/$K$2</f>
-        <v>6.5934065934065936E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" ref="M3:M38" si="1">H3*E3/$L$2</f>
+        <v>5.6792452830188675E-2</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N38" si="2">I3*E3/$L$2</f>
+        <v>5.6603773584905662E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -669,29 +830,32 @@
       <c r="E4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4">
         <v>83207</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>3.94</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>4</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <f t="shared" si="0"/>
         <v>6.0000000000000053E-2</v>
       </c>
-      <c r="L4">
-        <f t="shared" si="1"/>
-        <v>8.6593406593406586E-2</v>
-      </c>
       <c r="M4">
-        <f t="shared" si="2"/>
-        <v>8.7912087912087919E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>7.4339622641509437E-2</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="2"/>
+        <v>7.5471698113207544E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -707,29 +871,32 @@
       <c r="E5">
         <v>3</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5">
         <v>86672</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>3.81</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>4</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <f t="shared" si="0"/>
         <v>0.18999999999999995</v>
       </c>
-      <c r="L5">
-        <f t="shared" si="1"/>
-        <v>0.1256043956043956</v>
-      </c>
       <c r="M5">
-        <f t="shared" si="2"/>
-        <v>0.13186813186813187</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0.10783018867924528</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="2"/>
+        <v>0.11320754716981132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -745,29 +912,32 @@
       <c r="E6">
         <v>4</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6">
         <v>88288</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>3.3</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L6">
-        <f t="shared" si="1"/>
-        <v>0.10109890109890109</v>
-      </c>
       <c r="M6">
-        <f t="shared" si="2"/>
-        <v>0.14505494505494504</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>8.6792452830188674E-2</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="2"/>
+        <v>0.12452830188679245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -783,29 +953,32 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7">
         <v>11831</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>3.37</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>3.3</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <f t="shared" si="0"/>
         <v>-7.0000000000000284E-2</v>
       </c>
-      <c r="L7">
-        <f t="shared" si="1"/>
-        <v>3.7032967032967032E-2</v>
-      </c>
       <c r="M7">
-        <f t="shared" si="2"/>
-        <v>3.626373626373626E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>3.1792452830188681E-2</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="2"/>
+        <v>3.1132075471698113E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -821,29 +994,32 @@
       <c r="E8">
         <v>2</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8">
         <v>19254</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>2.95</v>
       </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
       <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="0"/>
         <v>4.9999999999999822E-2</v>
       </c>
-      <c r="L8">
-        <f t="shared" si="1"/>
-        <v>6.4835164835164841E-2</v>
-      </c>
       <c r="M8">
-        <f t="shared" si="2"/>
-        <v>6.5934065934065936E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>5.5660377358490568E-2</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="2"/>
+        <v>5.6603773584905662E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -859,29 +1035,32 @@
       <c r="E9">
         <v>4</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9">
         <v>19573</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>2.44</v>
       </c>
-      <c r="H9">
-        <v>3</v>
-      </c>
       <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="0"/>
         <v>0.56000000000000005</v>
       </c>
-      <c r="L9">
-        <f t="shared" si="1"/>
-        <v>0.10725274725274725</v>
-      </c>
       <c r="M9">
-        <f t="shared" si="2"/>
-        <v>0.13186813186813187</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>9.2075471698113212E-2</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="2"/>
+        <v>0.11320754716981132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -897,29 +1076,32 @@
       <c r="E10">
         <v>3</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10">
         <v>19612</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>2.7</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="L10">
-        <f t="shared" si="1"/>
-        <v>7.2527472527472533E-2</v>
-      </c>
       <c r="M10">
-        <f t="shared" si="2"/>
-        <v>8.9010989010989028E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>6.2264150943396233E-2</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="2"/>
+        <v>7.6415094339622652E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -935,29 +1117,32 @@
       <c r="E11">
         <v>4</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11">
         <v>15790</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>2.71</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>4</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <f t="shared" si="0"/>
         <v>1.29</v>
       </c>
-      <c r="L11">
-        <f t="shared" si="1"/>
-        <v>0.11912087912087913</v>
-      </c>
       <c r="M11">
-        <f t="shared" si="2"/>
-        <v>0.17582417582417584</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0.10226415094339622</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>0.15094339622641509</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -973,29 +1158,32 @@
       <c r="E12">
         <v>3</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12">
         <v>82145</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>2.74</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>2.7</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <f t="shared" si="0"/>
         <v>-4.0000000000000036E-2</v>
       </c>
-      <c r="L12">
-        <f t="shared" si="1"/>
-        <v>9.0329670329670333E-2</v>
-      </c>
       <c r="M12">
-        <f t="shared" si="2"/>
-        <v>8.9010989010989028E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>7.754716981132076E-2</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="2"/>
+        <v>7.6415094339622652E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1011,29 +1199,32 @@
       <c r="E13">
         <v>3</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13">
         <v>83328</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>2.42</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>2</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <f t="shared" si="0"/>
         <v>-0.41999999999999993</v>
       </c>
-      <c r="L13">
-        <f t="shared" si="1"/>
-        <v>7.9780219780219777E-2</v>
-      </c>
       <c r="M13">
-        <f t="shared" si="2"/>
-        <v>6.5934065934065936E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>6.8490566037735845E-2</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="2"/>
+        <v>5.6603773584905662E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1049,29 +1240,32 @@
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14">
         <v>84144</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>3.59</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>3.7</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <f t="shared" si="0"/>
         <v>0.11000000000000032</v>
       </c>
-      <c r="L14">
-        <f t="shared" si="1"/>
-        <v>3.9450549450549446E-2</v>
-      </c>
       <c r="M14">
-        <f t="shared" si="2"/>
-        <v>4.0659340659340661E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>3.3867924528301882E-2</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="2"/>
+        <v>3.490566037735849E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1087,29 +1281,32 @@
       <c r="E15">
         <v>3</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15">
         <v>88323</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>2.94</v>
       </c>
-      <c r="H15">
-        <v>3</v>
-      </c>
       <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15">
         <f t="shared" si="0"/>
         <v>6.0000000000000053E-2</v>
       </c>
-      <c r="L15">
-        <f t="shared" si="1"/>
-        <v>9.6923076923076931E-2</v>
-      </c>
       <c r="M15">
-        <f t="shared" si="2"/>
-        <v>9.8901098901098897E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>8.3207547169811324E-2</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="2"/>
+        <v>8.4905660377358486E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1125,29 +1322,32 @@
       <c r="E16">
         <v>3</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16">
         <v>84629</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>3.07</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>3.3</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <f t="shared" si="0"/>
         <v>0.22999999999999998</v>
       </c>
-      <c r="L16">
-        <f t="shared" si="1"/>
-        <v>0.1012087912087912</v>
-      </c>
       <c r="M16">
-        <f t="shared" si="2"/>
-        <v>0.10879120879120878</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>8.688679245283018E-2</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="2"/>
+        <v>9.3396226415094333E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1163,29 +1363,32 @@
       <c r="E17">
         <v>4</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17">
         <v>85713</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>2.85</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>3.3</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <f t="shared" si="0"/>
         <v>0.44999999999999973</v>
       </c>
-      <c r="L17">
-        <f t="shared" si="1"/>
-        <v>0.12527472527472527</v>
-      </c>
       <c r="M17">
-        <f t="shared" si="2"/>
-        <v>0.14505494505494504</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0.10754716981132076</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="2"/>
+        <v>0.12452830188679245</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1201,29 +1404,32 @@
       <c r="E18">
         <v>3</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18">
         <v>61047</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>2.17</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <f t="shared" si="0"/>
         <v>0.12999999999999989</v>
       </c>
-      <c r="L18">
-        <f t="shared" si="1"/>
-        <v>7.1538461538461537E-2</v>
-      </c>
       <c r="M18">
-        <f t="shared" si="2"/>
-        <v>7.5824175824175818E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>6.1415094339622639E-2</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="2"/>
+        <v>6.5094339622641509E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1239,29 +1445,32 @@
       <c r="E19">
         <v>3</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19">
         <v>61340</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>3.08</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>4</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <f t="shared" si="0"/>
         <v>0.91999999999999993</v>
       </c>
-      <c r="L19">
-        <f t="shared" si="1"/>
-        <v>0.10153846153846154</v>
-      </c>
       <c r="M19">
-        <f t="shared" si="2"/>
-        <v>0.13186813186813187</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>8.7169811320754714E-2</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="2"/>
+        <v>0.11320754716981132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1277,29 +1486,32 @@
       <c r="E20">
         <v>3</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20">
         <v>82602</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>2.63</v>
       </c>
-      <c r="H20">
-        <v>3</v>
-      </c>
       <c r="I20">
+        <v>3</v>
+      </c>
+      <c r="J20">
         <f t="shared" si="0"/>
         <v>0.37000000000000011</v>
       </c>
-      <c r="L20">
-        <f t="shared" si="1"/>
-        <v>8.6703296703296698E-2</v>
-      </c>
       <c r="M20">
-        <f t="shared" si="2"/>
-        <v>9.8901098901098897E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>7.4433962264150944E-2</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="2"/>
+        <v>8.4905660377358486E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1315,29 +1527,32 @@
       <c r="E21">
         <v>3</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21">
         <v>83899</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>2.67</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>3.7</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <f t="shared" si="0"/>
         <v>1.0300000000000002</v>
       </c>
-      <c r="L21">
-        <f t="shared" si="1"/>
-        <v>8.8021978021978017E-2</v>
-      </c>
       <c r="M21">
-        <f t="shared" si="2"/>
-        <v>0.12197802197802199</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>7.5566037735849051E-2</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="2"/>
+        <v>0.10471698113207549</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1353,29 +1568,32 @@
       <c r="E22">
         <v>2</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22">
         <v>85408</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>3.15</v>
       </c>
-      <c r="H22">
-        <v>3</v>
-      </c>
       <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="J22">
         <f t="shared" si="0"/>
         <v>-0.14999999999999991</v>
       </c>
-      <c r="L22">
-        <f t="shared" si="1"/>
-        <v>6.9230769230769235E-2</v>
-      </c>
       <c r="M22">
-        <f t="shared" si="2"/>
-        <v>6.5934065934065936E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>5.9433962264150944E-2</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="2"/>
+        <v>5.6603773584905662E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1391,29 +1609,32 @@
       <c r="E23">
         <v>3</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23">
         <v>86074</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>2.95</v>
       </c>
-      <c r="H23">
-        <v>3</v>
-      </c>
       <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="J23">
         <f t="shared" si="0"/>
         <v>4.9999999999999822E-2</v>
       </c>
-      <c r="L23">
-        <f t="shared" si="1"/>
-        <v>9.7252747252747268E-2</v>
-      </c>
       <c r="M23">
-        <f t="shared" si="2"/>
-        <v>9.8901098901098897E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>8.3490566037735858E-2</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="2"/>
+        <v>8.4905660377358486E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -1429,29 +1650,32 @@
       <c r="E24">
         <v>2</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24">
         <v>87473</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>2.67</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>2.7</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <f t="shared" si="0"/>
         <v>3.0000000000000249E-2</v>
       </c>
-      <c r="L24">
-        <f t="shared" si="1"/>
-        <v>5.8681318681318678E-2</v>
-      </c>
       <c r="M24">
-        <f t="shared" si="2"/>
-        <v>5.9340659340659345E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>5.0377358490566036E-2</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="2"/>
+        <v>5.0943396226415097E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1467,29 +1691,32 @@
       <c r="E25">
         <v>3</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25">
         <v>12797</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>3.55</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>4</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <f t="shared" si="0"/>
         <v>0.45000000000000018</v>
       </c>
-      <c r="L25">
-        <f t="shared" si="1"/>
-        <v>0.11703296703296702</v>
-      </c>
       <c r="M25">
-        <f t="shared" si="2"/>
-        <v>0.13186813186813187</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0.10047169811320754</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="2"/>
+        <v>0.11320754716981132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1505,29 +1732,32 @@
       <c r="E26">
         <v>3</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26">
         <v>15586</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>2.54</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>2.7</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <f t="shared" si="0"/>
         <v>0.16000000000000014</v>
       </c>
-      <c r="L26">
-        <f t="shared" si="1"/>
-        <v>8.3736263736263736E-2</v>
-      </c>
       <c r="M26">
-        <f t="shared" si="2"/>
-        <v>8.9010989010989028E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>7.1886792452830195E-2</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="2"/>
+        <v>7.6415094339622652E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1543,29 +1773,35 @@
       <c r="E27">
         <v>3</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27">
         <v>15595</v>
-      </c>
-      <c r="G27">
-        <v>3.3</v>
       </c>
       <c r="H27">
         <v>3.3</v>
       </c>
       <c r="I27">
+        <v>3.3</v>
+      </c>
+      <c r="J27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L27">
-        <f t="shared" si="1"/>
-        <v>0.10879120879120878</v>
+      <c r="K27" t="s">
+        <v>65</v>
       </c>
       <c r="M27">
-        <f t="shared" si="2"/>
-        <v>0.10879120879120878</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>9.3396226415094333E-2</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="2"/>
+        <v>9.3396226415094333E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1581,29 +1817,32 @@
       <c r="E28">
         <v>3</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28">
         <v>15601</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>2.58</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <f t="shared" si="0"/>
         <v>-0.28000000000000025</v>
       </c>
-      <c r="L28">
-        <f t="shared" si="1"/>
-        <v>8.5054945054945055E-2</v>
-      </c>
       <c r="M28">
-        <f t="shared" si="2"/>
-        <v>7.5824175824175818E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>7.3018867924528302E-2</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="2"/>
+        <v>6.5094339622641509E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1619,29 +1858,32 @@
       <c r="E29">
         <v>3</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29">
         <v>15604</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>2.5299999999999998</v>
       </c>
-      <c r="H29">
-        <v>3</v>
-      </c>
       <c r="I29">
+        <v>3</v>
+      </c>
+      <c r="J29">
         <f t="shared" si="0"/>
         <v>0.4700000000000002</v>
       </c>
-      <c r="L29">
-        <f t="shared" si="1"/>
-        <v>8.3406593406593399E-2</v>
-      </c>
       <c r="M29">
-        <f t="shared" si="2"/>
-        <v>9.8901098901098897E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>7.1603773584905661E-2</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="2"/>
+        <v>8.4905660377358486E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -1657,29 +1899,32 @@
       <c r="E30">
         <v>3</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30">
         <v>15826</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>2.68</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>3.3</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <f t="shared" si="0"/>
         <v>0.61999999999999966</v>
       </c>
-      <c r="L30">
-        <f t="shared" si="1"/>
-        <v>8.8351648351648368E-2</v>
-      </c>
       <c r="M30">
-        <f t="shared" si="2"/>
-        <v>0.10879120879120878</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>7.5849056603773599E-2</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="2"/>
+        <v>9.3396226415094333E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -1695,29 +1940,32 @@
       <c r="E31">
         <v>3</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31">
         <v>15835</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>2.56</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>4</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <f t="shared" si="0"/>
         <v>1.44</v>
       </c>
-      <c r="L31">
-        <f t="shared" si="1"/>
-        <v>8.4395604395604396E-2</v>
-      </c>
       <c r="M31">
-        <f t="shared" si="2"/>
-        <v>0.13186813186813187</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>7.2452830188679249E-2</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="2"/>
+        <v>0.11320754716981132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -1733,29 +1981,32 @@
       <c r="E32">
         <v>3</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32">
         <v>15859</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>2.86</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>3.3</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <f t="shared" si="0"/>
         <v>0.43999999999999995</v>
       </c>
-      <c r="L32">
-        <f t="shared" si="1"/>
-        <v>9.4285714285714292E-2</v>
-      </c>
       <c r="M32">
-        <f t="shared" si="2"/>
-        <v>0.10879120879120878</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>8.0943396226415096E-2</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="2"/>
+        <v>9.3396226415094333E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -1771,35 +2022,281 @@
       <c r="E33">
         <v>3</v>
       </c>
-      <c r="F33">
+      <c r="F33" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33">
         <v>15878</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>3.29</v>
       </c>
-      <c r="H33">
-        <v>3</v>
-      </c>
       <c r="I33">
+        <v>3</v>
+      </c>
+      <c r="J33">
         <f t="shared" si="0"/>
         <v>-0.29000000000000004</v>
       </c>
-      <c r="L33">
-        <f t="shared" si="1"/>
-        <v>0.10846153846153847</v>
-      </c>
       <c r="M33">
-        <f t="shared" si="2"/>
-        <v>9.8901098901098897E-2</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>9.3113207547169827E-2</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="2"/>
+        <v>8.4905660377358486E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>2018</v>
+      </c>
+      <c r="C34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34">
+        <v>2484</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34">
+        <v>81627</v>
+      </c>
+      <c r="H34">
+        <v>3.43</v>
+      </c>
+      <c r="I34">
+        <v>4</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>0.56999999999999984</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="1"/>
+        <v>9.7075471698113217E-2</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="2"/>
+        <v>0.11320754716981132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>2018</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35">
+        <v>4006</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35" t="s">
+        <v>68</v>
+      </c>
+      <c r="G35">
+        <v>85966</v>
+      </c>
+      <c r="H35">
+        <v>3.12</v>
+      </c>
+      <c r="I35">
+        <v>3.7</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>0.58000000000000007</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="1"/>
+        <v>8.8301886792452822E-2</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="2"/>
+        <v>0.10471698113207549</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>2018</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36">
+        <v>4015</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36" t="s">
+        <v>69</v>
+      </c>
+      <c r="G36">
+        <v>85988</v>
+      </c>
+      <c r="H36">
+        <v>3.63</v>
+      </c>
+      <c r="I36">
+        <v>3.7</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000284E-2</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="1"/>
+        <v>0.10273584905660378</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="2"/>
+        <v>0.10471698113207549</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>2018</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37">
+        <v>4124</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37">
+        <v>86001</v>
+      </c>
+      <c r="H37">
+        <v>2.65</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="0"/>
+        <v>0.35000000000000009</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="2"/>
+        <v>8.4905660377358486E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>2018</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38">
+        <v>4544</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38" t="s">
+        <v>71</v>
+      </c>
+      <c r="G38">
+        <v>86005</v>
+      </c>
+      <c r="H38">
+        <v>3.48</v>
+      </c>
+      <c r="I38">
+        <v>4</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="0"/>
+        <v>0.52</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="1"/>
+        <v>9.8490566037735844E-2</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="2"/>
+        <v>0.11320754716981132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K40" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K41" s="4"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K42" s="4"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K43" s="4"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K44" s="4"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K45" s="4"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K46" s="4"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K47" s="1"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K48" s="1"/>
+    </row>
+    <row r="49" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K49" s="1"/>
+    </row>
+    <row r="50" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K50" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I2:I33">
+  <mergeCells count="1">
+    <mergeCell ref="K40:K46"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J2:J38">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>-0.2</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0.2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
-      <formula>-0.2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
